--- a/Student_Mark.xlsx
+++ b/Student_Mark.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -38,34 +38,70 @@
     <t>P/F/D</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
+    <t>Aero Smith</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Christopher Nolan</t>
+  </si>
+  <si>
+    <t>Daniel Redcliffe</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Freddie</t>
+  </si>
+  <si>
+    <t>Gigi Hadid</t>
+  </si>
+  <si>
+    <t>Hailey Bieber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan </t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>Kalaw</t>
+  </si>
+  <si>
+    <t>Mandalay</t>
+  </si>
+  <si>
+    <t>Pyin Oo Lwin</t>
+  </si>
+  <si>
+    <t>Loi Kaw</t>
+  </si>
+  <si>
+    <t>Taung Gyi</t>
+  </si>
+  <si>
+    <t>Sagaing</t>
+  </si>
+  <si>
+    <t>Ngapali</t>
+  </si>
+  <si>
+    <t>Pathein</t>
+  </si>
+  <si>
+    <t>PyaPon</t>
   </si>
 </sst>
 </file>
@@ -108,53 +144,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <border>
         <left style="thin">
@@ -197,63 +197,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -543,15 +486,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +510,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -579,8 +531,14 @@
         <f>IF(C2&gt;=75,"D",IF(C2&lt;40,"F",IF(C2&gt;=40,"P")))</f>
         <v>D</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="2">
+        <v>354635463</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -594,8 +552,14 @@
         <f t="shared" ref="D3:D11" si="0">IF(C3&gt;=75,"D",IF(C3&lt;40,"F",IF(C3&gt;=40,"P")))</f>
         <v>P</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="2">
+        <v>4563546</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -609,8 +573,14 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="2">
+        <v>345354635</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -624,8 +594,14 @@
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="2">
+        <v>345635463</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -639,8 +615,14 @@
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="2">
+        <v>234234234</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -654,8 +636,14 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="2">
+        <v>4356345</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -669,8 +657,14 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="2">
+        <v>45634563</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -684,8 +678,14 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="2">
+        <v>34563456</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
@@ -699,8 +699,14 @@
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="2">
+        <v>345635463</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
@@ -714,23 +720,29 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
+      <c r="E11" s="2">
+        <v>3546354</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>40</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>75</formula>
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
